--- a/biology/Microbiologie/Rahnella/Rahnella.xlsx
+++ b/biology/Microbiologie/Rahnella/Rahnella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rahnella est un genre de bacilles Gram négatifs (BGN) de la famille des Yersiniaceae. Son nom fait référence au bactériologiste Otto Rahn qui fut le premier à décrire la famille des Enterobacteriaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahnella est un genre de bacilles Gram négatifs (BGN) de la famille des Yersiniaceae. Son nom fait référence au bactériologiste Otto Rahn qui fut le premier à décrire la famille des Enterobacteriaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Yersiniaceae nouvellement créée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Yersiniaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (25 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (25 octobre 2022) :
 Rahnella aceris Lee et al. 2021
 Rahnella aquatilis Izard et al. 1981 – espèce type
 Rahnella bonaserana Brady et al. 2022
